--- a/biology/Botanique/Buphthalmum_salicifolium/Buphthalmum_salicifolium.xlsx
+++ b/biology/Botanique/Buphthalmum_salicifolium/Buphthalmum_salicifolium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buphthalmum salicifolium
 La Buphtalme à feuilles de saule (Buphthalmum salicifolium), également appelée œil de bœuf, est une espèce de plante à fleurs de la famille des Astéracées.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée qui pousse en bosquets à la lisière des bois ou dans les prés secs et rocailleux bien exposés. Elle aime les sols calcaires.
 Une confusion est possible avec l'Inule à feuilles de saule (Inula salicina) chez qui les ligules sont plus étroites.
@@ -546,7 +560,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve l'espèce en Europe. Elle a été introduite en Asie.
 </t>
@@ -577,7 +593,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est protégée en Lorraine et en Midi-Pyrénées.
 </t>
